--- a/Book11_updated_limited.xlsx
+++ b/Book11_updated_limited.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent.Zhong\Documents\GitHub\Label_Star\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA54F63-7348-4CEC-B8EE-5ECC8D1563C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -4366,8 +4372,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4430,13 +4436,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4474,7 +4488,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -4508,6 +4522,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4542,9 +4557,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4717,14 +4733,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P449"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4774,7 +4792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4815,7 +4833,7 @@
         <v>30</v>
       </c>
       <c r="N2">
-        <v>528.33</v>
+        <v>528.33000000000004</v>
       </c>
       <c r="O2">
         <v>70</v>
@@ -4824,7 +4842,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -4874,7 +4892,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -4924,7 +4942,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -4974,7 +4992,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -5024,7 +5042,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -5074,7 +5092,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -5124,7 +5142,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -5159,7 +5177,7 @@
         <v>354.13</v>
       </c>
       <c r="L9">
-        <v>159.36</v>
+        <v>159.36000000000001</v>
       </c>
       <c r="M9">
         <v>45</v>
@@ -5174,7 +5192,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -5212,7 +5230,7 @@
         <v>30</v>
       </c>
       <c r="N10">
-        <v>523.17</v>
+        <v>523.16999999999996</v>
       </c>
       <c r="O10">
         <v>70</v>
@@ -5221,7 +5239,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -5271,7 +5289,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -5321,7 +5339,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -5368,7 +5386,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -5409,7 +5427,7 @@
         <v>30</v>
       </c>
       <c r="N14">
-        <v>1136.63</v>
+        <v>1136.6300000000001</v>
       </c>
       <c r="O14">
         <v>70</v>
@@ -5418,7 +5436,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -5468,7 +5486,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -5518,7 +5536,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -5550,10 +5568,10 @@
         <v>8579</v>
       </c>
       <c r="K17">
-        <v>1072.38</v>
+        <v>1072.3800000000001</v>
       </c>
       <c r="L17">
-        <v>321.71</v>
+        <v>321.70999999999998</v>
       </c>
       <c r="M17">
         <v>30</v>
@@ -5568,7 +5586,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -5618,7 +5636,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -5668,7 +5686,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -5709,7 +5727,7 @@
         <v>30</v>
       </c>
       <c r="N20">
-        <v>315.53</v>
+        <v>315.52999999999997</v>
       </c>
       <c r="O20">
         <v>70</v>
@@ -5718,7 +5736,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -5768,7 +5786,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -5818,7 +5836,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -5868,7 +5886,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -5918,7 +5936,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -5950,7 +5968,7 @@
         <v>514.25</v>
       </c>
       <c r="L25">
-        <v>154.27</v>
+        <v>154.27000000000001</v>
       </c>
       <c r="M25">
         <v>30</v>
@@ -5965,7 +5983,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -6015,7 +6033,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -6062,7 +6080,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -6112,7 +6130,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -6147,13 +6165,13 @@
         <v>1460.13</v>
       </c>
       <c r="L29">
-        <v>292.03</v>
+        <v>292.02999999999997</v>
       </c>
       <c r="M29">
         <v>20</v>
       </c>
       <c r="N29">
-        <v>1168.1</v>
+        <v>1168.0999999999999</v>
       </c>
       <c r="O29">
         <v>80</v>
@@ -6162,7 +6180,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -6212,7 +6230,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -6262,7 +6280,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -6312,7 +6330,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -6344,7 +6362,7 @@
         <v>8227</v>
       </c>
       <c r="K33">
-        <v>1028.38</v>
+        <v>1028.3800000000001</v>
       </c>
       <c r="L33">
         <v>205.68</v>
@@ -6362,7 +6380,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -6412,7 +6430,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -6462,7 +6480,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -6512,7 +6530,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -6559,7 +6577,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -6609,7 +6627,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -6641,16 +6659,16 @@
         <v>9781</v>
       </c>
       <c r="K39">
-        <v>1222.63</v>
+        <v>1222.6300000000001</v>
       </c>
       <c r="L39">
-        <v>611.3099999999999</v>
+        <v>611.30999999999995</v>
       </c>
       <c r="M39">
         <v>50</v>
       </c>
       <c r="N39">
-        <v>611.3200000000001</v>
+        <v>611.32000000000005</v>
       </c>
       <c r="O39">
         <v>50</v>
@@ -6659,7 +6677,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -6709,7 +6727,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -6759,7 +6777,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -6809,7 +6827,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -6859,7 +6877,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -6900,7 +6918,7 @@
         <v>30</v>
       </c>
       <c r="N44">
-        <v>1199.37</v>
+        <v>1199.3699999999999</v>
       </c>
       <c r="O44">
         <v>70</v>
@@ -6909,7 +6927,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -6959,7 +6977,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -7006,7 +7024,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -7056,7 +7074,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -7106,7 +7124,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -7156,7 +7174,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -7191,13 +7209,13 @@
         <v>1544.63</v>
       </c>
       <c r="L50">
-        <v>772.3099999999999</v>
+        <v>772.31</v>
       </c>
       <c r="M50">
         <v>50</v>
       </c>
       <c r="N50">
-        <v>772.3200000000001</v>
+        <v>772.32</v>
       </c>
       <c r="O50">
         <v>50</v>
@@ -7206,7 +7224,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -7253,7 +7271,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -7303,7 +7321,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -7353,7 +7371,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -7403,7 +7421,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -7453,7 +7471,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -7503,7 +7521,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -7553,7 +7571,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>71</v>
       </c>
@@ -7603,7 +7621,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -7653,7 +7671,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -7703,7 +7721,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -7753,7 +7771,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -7803,7 +7821,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -7853,7 +7871,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -7885,16 +7903,16 @@
         <v>2916</v>
       </c>
       <c r="K64">
-        <v>291.6</v>
+        <v>291.60000000000002</v>
       </c>
       <c r="L64">
-        <v>145.8</v>
+        <v>145.80000000000001</v>
       </c>
       <c r="M64">
         <v>50</v>
       </c>
       <c r="N64">
-        <v>145.8</v>
+        <v>145.80000000000001</v>
       </c>
       <c r="O64">
         <v>50</v>
@@ -7903,7 +7921,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -7953,7 +7971,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -8003,7 +8021,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -8053,7 +8071,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -8103,7 +8121,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -8153,7 +8171,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -8203,7 +8221,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -8250,7 +8268,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -8297,7 +8315,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -8347,7 +8365,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -8397,7 +8415,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -8432,13 +8450,13 @@
         <v>363.38</v>
       </c>
       <c r="L75">
-        <v>90.84999999999999</v>
+        <v>90.85</v>
       </c>
       <c r="M75">
         <v>25</v>
       </c>
       <c r="N75">
-        <v>272.53</v>
+        <v>272.52999999999997</v>
       </c>
       <c r="O75">
         <v>75</v>
@@ -8447,7 +8465,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -8494,7 +8512,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -8544,7 +8562,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -8594,7 +8612,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -8644,7 +8662,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -8694,7 +8712,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -8744,7 +8762,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -8794,7 +8812,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -8844,7 +8862,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -8894,7 +8912,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -8944,7 +8962,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>99</v>
       </c>
@@ -8994,7 +9012,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -9044,7 +9062,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -9094,7 +9112,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -9144,7 +9162,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -9194,7 +9212,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -9235,7 +9253,7 @@
         <v>25</v>
       </c>
       <c r="N91">
-        <v>318.66</v>
+        <v>318.66000000000003</v>
       </c>
       <c r="O91">
         <v>75</v>
@@ -9244,7 +9262,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>105</v>
       </c>
@@ -9294,7 +9312,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>106</v>
       </c>
@@ -9344,7 +9362,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>107</v>
       </c>
@@ -9376,16 +9394,16 @@
         <v>2676</v>
       </c>
       <c r="K94">
-        <v>267.6</v>
+        <v>267.60000000000002</v>
       </c>
       <c r="L94">
-        <v>133.8</v>
+        <v>133.80000000000001</v>
       </c>
       <c r="M94">
         <v>50</v>
       </c>
       <c r="N94">
-        <v>133.8</v>
+        <v>133.80000000000001</v>
       </c>
       <c r="O94">
         <v>50</v>
@@ -9394,7 +9412,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -9444,7 +9462,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>109</v>
       </c>
@@ -9494,7 +9512,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>110</v>
       </c>
@@ -9544,7 +9562,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>111</v>
       </c>
@@ -9594,7 +9612,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>112</v>
       </c>
@@ -9644,7 +9662,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>113</v>
       </c>
@@ -9694,7 +9712,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>114</v>
       </c>
@@ -9744,7 +9762,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>115</v>
       </c>
@@ -9794,7 +9812,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>116</v>
       </c>
@@ -9841,7 +9859,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>117</v>
       </c>
@@ -9891,7 +9909,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>118</v>
       </c>
@@ -9941,7 +9959,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>119</v>
       </c>
@@ -9973,16 +9991,16 @@
         <v>9357</v>
       </c>
       <c r="K106">
-        <v>1169.63</v>
+        <v>1169.6300000000001</v>
       </c>
       <c r="L106">
-        <v>584.8200000000001</v>
+        <v>584.82000000000005</v>
       </c>
       <c r="M106">
         <v>50</v>
       </c>
       <c r="N106">
-        <v>584.8099999999999</v>
+        <v>584.80999999999995</v>
       </c>
       <c r="O106">
         <v>50</v>
@@ -9991,7 +10009,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>120</v>
       </c>
@@ -10041,7 +10059,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>121</v>
       </c>
@@ -10091,7 +10109,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>122</v>
       </c>
@@ -10141,7 +10159,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>123</v>
       </c>
@@ -10191,7 +10209,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>124</v>
       </c>
@@ -10241,7 +10259,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>125</v>
       </c>
@@ -10291,7 +10309,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>126</v>
       </c>
@@ -10326,7 +10344,7 @@
         <v>317.13</v>
       </c>
       <c r="L113">
-        <v>79.29000000000001</v>
+        <v>79.290000000000006</v>
       </c>
       <c r="M113">
         <v>25</v>
@@ -10341,7 +10359,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>127</v>
       </c>
@@ -10391,7 +10409,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>128</v>
       </c>
@@ -10441,7 +10459,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>129</v>
       </c>
@@ -10491,7 +10509,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>130</v>
       </c>
@@ -10541,7 +10559,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>131</v>
       </c>
@@ -10591,7 +10609,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>132</v>
       </c>
@@ -10641,7 +10659,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>133</v>
       </c>
@@ -10691,7 +10709,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>134</v>
       </c>
@@ -10732,7 +10750,7 @@
         <v>25</v>
       </c>
       <c r="N121">
-        <v>544.6900000000001</v>
+        <v>544.69000000000005</v>
       </c>
       <c r="O121">
         <v>75</v>
@@ -10741,7 +10759,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>135</v>
       </c>
@@ -10791,7 +10809,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>136</v>
       </c>
@@ -10841,7 +10859,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>137</v>
       </c>
@@ -10891,7 +10909,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>138</v>
       </c>
@@ -10941,7 +10959,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>139</v>
       </c>
@@ -10991,7 +11009,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>140</v>
       </c>
@@ -11041,7 +11059,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>141</v>
       </c>
@@ -11091,7 +11109,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>142</v>
       </c>
@@ -11141,7 +11159,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>143</v>
       </c>
@@ -11191,7 +11209,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>144</v>
       </c>
@@ -11241,7 +11259,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>145</v>
       </c>
@@ -11291,7 +11309,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>146</v>
       </c>
@@ -11341,7 +11359,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>147</v>
       </c>
@@ -11391,7 +11409,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>148</v>
       </c>
@@ -11441,7 +11459,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>149</v>
       </c>
@@ -11491,7 +11509,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>150</v>
       </c>
@@ -11541,7 +11559,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>151</v>
       </c>
@@ -11591,7 +11609,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>152</v>
       </c>
@@ -11641,7 +11659,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>153</v>
       </c>
@@ -11691,7 +11709,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>154</v>
       </c>
@@ -11732,7 +11750,7 @@
         <v>25</v>
       </c>
       <c r="N141">
-        <v>281.91</v>
+        <v>281.91000000000003</v>
       </c>
       <c r="O141">
         <v>75</v>
@@ -11741,7 +11759,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>155</v>
       </c>
@@ -11791,7 +11809,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>156</v>
       </c>
@@ -11841,7 +11859,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>157</v>
       </c>
@@ -11891,7 +11909,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>158</v>
       </c>
@@ -11941,7 +11959,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>159</v>
       </c>
@@ -11991,7 +12009,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>160</v>
       </c>
@@ -12041,7 +12059,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>161</v>
       </c>
@@ -12091,7 +12109,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="149" spans="1:16">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>162</v>
       </c>
@@ -12138,7 +12156,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>163</v>
       </c>
@@ -12188,7 +12206,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>164</v>
       </c>
@@ -12238,7 +12256,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>165</v>
       </c>
@@ -12288,7 +12306,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="153" spans="1:16">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>166</v>
       </c>
@@ -12335,7 +12353,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>167</v>
       </c>
@@ -12382,10 +12400,10 @@
         <v>50</v>
       </c>
       <c r="P154" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>168</v>
       </c>
@@ -12417,7 +12435,7 @@
         <v>174.63</v>
       </c>
       <c r="L155">
-        <v>87.31999999999999</v>
+        <v>87.32</v>
       </c>
       <c r="M155">
         <v>50</v>
@@ -12432,7 +12450,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>169</v>
       </c>
@@ -12482,7 +12500,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="157" spans="1:16">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>170</v>
       </c>
@@ -12532,7 +12550,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>171</v>
       </c>
@@ -12582,7 +12600,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>172</v>
       </c>
@@ -12632,7 +12650,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>173</v>
       </c>
@@ -12682,7 +12700,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>174</v>
       </c>
@@ -12732,7 +12750,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>175</v>
       </c>
@@ -12782,7 +12800,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="163" spans="1:16">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>176</v>
       </c>
@@ -12823,7 +12841,7 @@
         <v>25</v>
       </c>
       <c r="N163">
-        <v>584.0599999999999</v>
+        <v>584.05999999999995</v>
       </c>
       <c r="O163">
         <v>75</v>
@@ -12832,7 +12850,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>177</v>
       </c>
@@ -12882,7 +12900,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>178</v>
       </c>
@@ -12932,7 +12950,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>151</v>
       </c>
@@ -12982,7 +13000,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>179</v>
       </c>
@@ -13032,7 +13050,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>180</v>
       </c>
@@ -13082,7 +13100,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>181</v>
       </c>
@@ -13114,7 +13132,7 @@
         <v>3229</v>
       </c>
       <c r="K169">
-        <v>322.9</v>
+        <v>322.89999999999998</v>
       </c>
       <c r="L169">
         <v>80.72</v>
@@ -13132,7 +13150,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>182</v>
       </c>
@@ -13182,7 +13200,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="171" spans="1:16">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>183</v>
       </c>
@@ -13232,7 +13250,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>184</v>
       </c>
@@ -13282,7 +13300,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>185</v>
       </c>
@@ -13332,7 +13350,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>186</v>
       </c>
@@ -13373,7 +13391,7 @@
         <v>25</v>
       </c>
       <c r="N174">
-        <v>294.47</v>
+        <v>294.47000000000003</v>
       </c>
       <c r="O174">
         <v>75</v>
@@ -13382,7 +13400,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>187</v>
       </c>
@@ -13423,7 +13441,7 @@
         <v>25</v>
       </c>
       <c r="N175">
-        <v>585.1900000000001</v>
+        <v>585.19000000000005</v>
       </c>
       <c r="O175">
         <v>75</v>
@@ -13432,7 +13450,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>188</v>
       </c>
@@ -13482,7 +13500,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="177" spans="1:16">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>189</v>
       </c>
@@ -13532,7 +13550,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>190</v>
       </c>
@@ -13582,7 +13600,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>191</v>
       </c>
@@ -13632,7 +13650,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>192</v>
       </c>
@@ -13679,7 +13697,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>193</v>
       </c>
@@ -13720,7 +13738,7 @@
         <v>25</v>
       </c>
       <c r="N181">
-        <v>319.97</v>
+        <v>319.97000000000003</v>
       </c>
       <c r="O181">
         <v>75</v>
@@ -13729,7 +13747,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>194</v>
       </c>
@@ -13764,7 +13782,7 @@
         <v>435.88</v>
       </c>
       <c r="L182">
-        <v>130.77</v>
+        <v>130.77000000000001</v>
       </c>
       <c r="M182">
         <v>30</v>
@@ -13779,7 +13797,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>195</v>
       </c>
@@ -13826,7 +13844,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>196</v>
       </c>
@@ -13876,7 +13894,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="185" spans="1:16">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>197</v>
       </c>
@@ -13926,7 +13944,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>198</v>
       </c>
@@ -13976,7 +13994,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>199</v>
       </c>
@@ -14011,7 +14029,7 @@
         <v>883.25</v>
       </c>
       <c r="L187">
-        <v>264.97</v>
+        <v>264.97000000000003</v>
       </c>
       <c r="M187">
         <v>30</v>
@@ -14026,7 +14044,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>200</v>
       </c>
@@ -14076,7 +14094,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>201</v>
       </c>
@@ -14126,7 +14144,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>202</v>
       </c>
@@ -14176,7 +14194,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>203</v>
       </c>
@@ -14226,7 +14244,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="192" spans="1:16">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>204</v>
       </c>
@@ -14264,7 +14282,7 @@
         <v>25</v>
       </c>
       <c r="N192">
-        <v>267.41</v>
+        <v>267.41000000000003</v>
       </c>
       <c r="O192">
         <v>75</v>
@@ -14273,7 +14291,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="193" spans="1:16">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>205</v>
       </c>
@@ -14308,7 +14326,7 @@
         <v>270.25</v>
       </c>
       <c r="L193">
-        <v>81.06999999999999</v>
+        <v>81.069999999999993</v>
       </c>
       <c r="M193">
         <v>30</v>
@@ -14323,7 +14341,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="194" spans="1:16">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>206</v>
       </c>
@@ -14373,7 +14391,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="195" spans="1:16">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>207</v>
       </c>
@@ -14408,7 +14426,7 @@
         <v>358.8</v>
       </c>
       <c r="L195">
-        <v>143.52</v>
+        <v>143.52000000000001</v>
       </c>
       <c r="M195">
         <v>40</v>
@@ -14423,7 +14441,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>208</v>
       </c>
@@ -14473,7 +14491,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="197" spans="1:16">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>209</v>
       </c>
@@ -14523,7 +14541,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="198" spans="1:16">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>210</v>
       </c>
@@ -14573,7 +14591,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="199" spans="1:16">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>211</v>
       </c>
@@ -14623,7 +14641,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="200" spans="1:16">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>212</v>
       </c>
@@ -14673,7 +14691,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="201" spans="1:16">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>213</v>
       </c>
@@ -14723,7 +14741,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="202" spans="1:16">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>214</v>
       </c>
@@ -14773,7 +14791,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="203" spans="1:16">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>215</v>
       </c>
@@ -14823,7 +14841,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="204" spans="1:16">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>216</v>
       </c>
@@ -14873,7 +14891,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="205" spans="1:16">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>217</v>
       </c>
@@ -14923,7 +14941,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="206" spans="1:16">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>218</v>
       </c>
@@ -14964,7 +14982,7 @@
         <v>40</v>
       </c>
       <c r="N206">
-        <v>555.3</v>
+        <v>555.29999999999995</v>
       </c>
       <c r="O206">
         <v>60</v>
@@ -14973,7 +14991,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="207" spans="1:16">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>219</v>
       </c>
@@ -15008,7 +15026,7 @@
         <v>242.75</v>
       </c>
       <c r="L207">
-        <v>72.81999999999999</v>
+        <v>72.819999999999993</v>
       </c>
       <c r="M207">
         <v>30</v>
@@ -15023,7 +15041,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="208" spans="1:16">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>220</v>
       </c>
@@ -15064,7 +15082,7 @@
         <v>30</v>
       </c>
       <c r="N208">
-        <v>295.4</v>
+        <v>295.39999999999998</v>
       </c>
       <c r="O208">
         <v>70</v>
@@ -15073,7 +15091,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="209" spans="1:16">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>221</v>
       </c>
@@ -15123,7 +15141,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="210" spans="1:16">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>222</v>
       </c>
@@ -15173,7 +15191,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="211" spans="1:16">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>223</v>
       </c>
@@ -15214,7 +15232,7 @@
         <v>40</v>
       </c>
       <c r="N211">
-        <v>157.73</v>
+        <v>157.72999999999999</v>
       </c>
       <c r="O211">
         <v>60</v>
@@ -15223,7 +15241,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="212" spans="1:16">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>224</v>
       </c>
@@ -15273,7 +15291,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="213" spans="1:16">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>225</v>
       </c>
@@ -15323,7 +15341,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="214" spans="1:16">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>226</v>
       </c>
@@ -15373,7 +15391,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="215" spans="1:16">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>227</v>
       </c>
@@ -15423,7 +15441,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="216" spans="1:16">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>228</v>
       </c>
@@ -15473,7 +15491,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="217" spans="1:16">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>229</v>
       </c>
@@ -15523,7 +15541,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="218" spans="1:16">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>230</v>
       </c>
@@ -15573,7 +15591,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="219" spans="1:16">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>231</v>
       </c>
@@ -15623,7 +15641,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="220" spans="1:16">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>232</v>
       </c>
@@ -15673,7 +15691,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="221" spans="1:16">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>233</v>
       </c>
@@ -15723,7 +15741,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="222" spans="1:16">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>234</v>
       </c>
@@ -15773,7 +15791,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="223" spans="1:16">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>235</v>
       </c>
@@ -15823,7 +15841,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="224" spans="1:16">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>236</v>
       </c>
@@ -15873,7 +15891,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="225" spans="1:16">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>237</v>
       </c>
@@ -15923,7 +15941,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="226" spans="1:16">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>238</v>
       </c>
@@ -15973,7 +15991,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="227" spans="1:16">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>239</v>
       </c>
@@ -16023,7 +16041,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="228" spans="1:16">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>240</v>
       </c>
@@ -16073,7 +16091,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="229" spans="1:16">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>241</v>
       </c>
@@ -16123,7 +16141,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="230" spans="1:16">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>242</v>
       </c>
@@ -16173,7 +16191,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="231" spans="1:16">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>243</v>
       </c>
@@ -16223,7 +16241,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="232" spans="1:16">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>244</v>
       </c>
@@ -16273,7 +16291,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="233" spans="1:16">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>245</v>
       </c>
@@ -16323,7 +16341,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="234" spans="1:16">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>246</v>
       </c>
@@ -16373,7 +16391,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="235" spans="1:16">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>247</v>
       </c>
@@ -16423,7 +16441,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="236" spans="1:16">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>248</v>
       </c>
@@ -16464,7 +16482,7 @@
         <v>30</v>
       </c>
       <c r="N236">
-        <v>283.85</v>
+        <v>283.85000000000002</v>
       </c>
       <c r="O236">
         <v>70</v>
@@ -16473,7 +16491,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="237" spans="1:16">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>249</v>
       </c>
@@ -16523,7 +16541,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="238" spans="1:16">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>250</v>
       </c>
@@ -16573,7 +16591,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="239" spans="1:16">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>251</v>
       </c>
@@ -16623,7 +16641,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="240" spans="1:16">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>252</v>
       </c>
@@ -16673,7 +16691,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="241" spans="1:16">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>253</v>
       </c>
@@ -16723,7 +16741,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="242" spans="1:16">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>254</v>
       </c>
@@ -16773,7 +16791,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="243" spans="1:16">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>255</v>
       </c>
@@ -16808,7 +16826,7 @@
         <v>302</v>
       </c>
       <c r="L243">
-        <v>90.59999999999999</v>
+        <v>90.6</v>
       </c>
       <c r="M243">
         <v>30</v>
@@ -16823,7 +16841,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="244" spans="1:16">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>256</v>
       </c>
@@ -16873,7 +16891,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="245" spans="1:16">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>257</v>
       </c>
@@ -16923,7 +16941,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="246" spans="1:16">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>258</v>
       </c>
@@ -16973,7 +16991,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="247" spans="1:16">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>259</v>
       </c>
@@ -17023,7 +17041,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="248" spans="1:16">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>260</v>
       </c>
@@ -17073,7 +17091,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="249" spans="1:16">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>261</v>
       </c>
@@ -17123,7 +17141,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="250" spans="1:16">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>262</v>
       </c>
@@ -17173,7 +17191,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="251" spans="1:16">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>263</v>
       </c>
@@ -17223,7 +17241,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="252" spans="1:16">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>264</v>
       </c>
@@ -17270,7 +17288,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="253" spans="1:16">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>265</v>
       </c>
@@ -17320,7 +17338,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="254" spans="1:16">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>224</v>
       </c>
@@ -17370,7 +17388,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="255" spans="1:16">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>266</v>
       </c>
@@ -17420,7 +17438,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="256" spans="1:16">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>267</v>
       </c>
@@ -17470,7 +17488,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="257" spans="1:16">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>268</v>
       </c>
@@ -17520,7 +17538,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="258" spans="1:16">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>269</v>
       </c>
@@ -17570,7 +17588,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="259" spans="1:16">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>270</v>
       </c>
@@ -17611,7 +17629,7 @@
         <v>30</v>
       </c>
       <c r="N259">
-        <v>134.05</v>
+        <v>134.05000000000001</v>
       </c>
       <c r="O259">
         <v>70</v>
@@ -17620,7 +17638,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="260" spans="1:16">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>271</v>
       </c>
@@ -17670,7 +17688,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="261" spans="1:16">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>272</v>
       </c>
@@ -17705,7 +17723,7 @@
         <v>527.25</v>
       </c>
       <c r="L261">
-        <v>158.17</v>
+        <v>158.16999999999999</v>
       </c>
       <c r="M261">
         <v>30</v>
@@ -17720,7 +17738,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="262" spans="1:16">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>273</v>
       </c>
@@ -17770,7 +17788,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="263" spans="1:16">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>274</v>
       </c>
@@ -17820,7 +17838,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="264" spans="1:16">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>275</v>
       </c>
@@ -17870,7 +17888,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="265" spans="1:16">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>276</v>
       </c>
@@ -17920,7 +17938,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="266" spans="1:16">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>277</v>
       </c>
@@ -17970,7 +17988,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="267" spans="1:16">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>278</v>
       </c>
@@ -18020,7 +18038,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="268" spans="1:16">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>279</v>
       </c>
@@ -18070,7 +18088,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="269" spans="1:16">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>280</v>
       </c>
@@ -18102,7 +18120,7 @@
         <v>544.63</v>
       </c>
       <c r="L269">
-        <v>163.39</v>
+        <v>163.38999999999999</v>
       </c>
       <c r="M269">
         <v>30</v>
@@ -18117,7 +18135,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="270" spans="1:16">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>281</v>
       </c>
@@ -18167,7 +18185,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="271" spans="1:16">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>281</v>
       </c>
@@ -18208,7 +18226,7 @@
         <v>30</v>
       </c>
       <c r="N271">
-        <v>630.4400000000001</v>
+        <v>630.44000000000005</v>
       </c>
       <c r="O271">
         <v>70</v>
@@ -18217,7 +18235,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="272" spans="1:16">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>282</v>
       </c>
@@ -18267,7 +18285,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="273" spans="1:16">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>283</v>
       </c>
@@ -18317,7 +18335,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="274" spans="1:16">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>284</v>
       </c>
@@ -18367,7 +18385,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="275" spans="1:16">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>285</v>
       </c>
@@ -18417,7 +18435,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="276" spans="1:16">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>286</v>
       </c>
@@ -18467,7 +18485,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="277" spans="1:16">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>287</v>
       </c>
@@ -18517,7 +18535,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="278" spans="1:16">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>288</v>
       </c>
@@ -18558,7 +18576,7 @@
         <v>20</v>
       </c>
       <c r="N278">
-        <v>558.7</v>
+        <v>558.70000000000005</v>
       </c>
       <c r="O278">
         <v>80</v>
@@ -18567,7 +18585,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="279" spans="1:16">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>289</v>
       </c>
@@ -18617,7 +18635,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="280" spans="1:16">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>290</v>
       </c>
@@ -18667,7 +18685,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="281" spans="1:16">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>291</v>
       </c>
@@ -18702,7 +18720,7 @@
         <v>669.75</v>
       </c>
       <c r="L281">
-        <v>267.9</v>
+        <v>267.89999999999998</v>
       </c>
       <c r="M281">
         <v>40</v>
@@ -18717,7 +18735,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="282" spans="1:16">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>292</v>
       </c>
@@ -18767,7 +18785,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="283" spans="1:16">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>293</v>
       </c>
@@ -18817,7 +18835,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="284" spans="1:16">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>294</v>
       </c>
@@ -18867,7 +18885,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="285" spans="1:16">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>295</v>
       </c>
@@ -18902,7 +18920,7 @@
         <v>431.5</v>
       </c>
       <c r="L285">
-        <v>129.45</v>
+        <v>129.44999999999999</v>
       </c>
       <c r="M285">
         <v>30</v>
@@ -18917,7 +18935,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="286" spans="1:16">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>296</v>
       </c>
@@ -18967,7 +18985,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="287" spans="1:16">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>297</v>
       </c>
@@ -19002,7 +19020,7 @@
         <v>347.15</v>
       </c>
       <c r="L287">
-        <v>86.79000000000001</v>
+        <v>86.79</v>
       </c>
       <c r="M287">
         <v>25</v>
@@ -19017,7 +19035,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="288" spans="1:16">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>298</v>
       </c>
@@ -19067,7 +19085,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="289" spans="1:16">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>299</v>
       </c>
@@ -19117,7 +19135,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="290" spans="1:16">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>300</v>
       </c>
@@ -19149,10 +19167,10 @@
         <v>8649</v>
       </c>
       <c r="K290">
-        <v>1081.13</v>
+        <v>1081.1300000000001</v>
       </c>
       <c r="L290">
-        <v>324.34</v>
+        <v>324.33999999999997</v>
       </c>
       <c r="M290">
         <v>30</v>
@@ -19167,7 +19185,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="291" spans="1:16">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>300</v>
       </c>
@@ -19199,10 +19217,10 @@
         <v>8649</v>
       </c>
       <c r="K291">
-        <v>1081.13</v>
+        <v>1081.1300000000001</v>
       </c>
       <c r="L291">
-        <v>270.29</v>
+        <v>270.29000000000002</v>
       </c>
       <c r="M291">
         <v>25</v>
@@ -19217,7 +19235,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="292" spans="1:16">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>301</v>
       </c>
@@ -19258,7 +19276,7 @@
         <v>30</v>
       </c>
       <c r="N292">
-        <v>541.8</v>
+        <v>541.79999999999995</v>
       </c>
       <c r="O292">
         <v>70</v>
@@ -19267,7 +19285,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="293" spans="1:16">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>302</v>
       </c>
@@ -19317,7 +19335,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="294" spans="1:16">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>303</v>
       </c>
@@ -19367,7 +19385,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="295" spans="1:16">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>304</v>
       </c>
@@ -19402,7 +19420,7 @@
         <v>230.5</v>
       </c>
       <c r="L295">
-        <v>69.15000000000001</v>
+        <v>69.150000000000006</v>
       </c>
       <c r="M295">
         <v>30</v>
@@ -19417,7 +19435,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="296" spans="1:16">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>305</v>
       </c>
@@ -19467,7 +19485,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="297" spans="1:16">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>306</v>
       </c>
@@ -19517,7 +19535,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="298" spans="1:16">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>307</v>
       </c>
@@ -19558,7 +19576,7 @@
         <v>30</v>
       </c>
       <c r="N298">
-        <v>273.35</v>
+        <v>273.35000000000002</v>
       </c>
       <c r="O298">
         <v>70</v>
@@ -19567,7 +19585,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="299" spans="1:16">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>308</v>
       </c>
@@ -19617,7 +19635,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="300" spans="1:16">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>309</v>
       </c>
@@ -19667,7 +19685,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="301" spans="1:16">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>310</v>
       </c>
@@ -19717,7 +19735,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="302" spans="1:16">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>311</v>
       </c>
@@ -19767,7 +19785,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="303" spans="1:16">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>312</v>
       </c>
@@ -19802,7 +19820,7 @@
         <v>522.25</v>
       </c>
       <c r="L303">
-        <v>156.67</v>
+        <v>156.66999999999999</v>
       </c>
       <c r="M303">
         <v>30</v>
@@ -19817,7 +19835,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="304" spans="1:16">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>313</v>
       </c>
@@ -19867,7 +19885,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="305" spans="1:16">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>314</v>
       </c>
@@ -19917,7 +19935,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="306" spans="1:16">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>315</v>
       </c>
@@ -19967,7 +19985,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="307" spans="1:16">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>316</v>
       </c>
@@ -20017,7 +20035,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="308" spans="1:16">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>317</v>
       </c>
@@ -20067,7 +20085,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="309" spans="1:16">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>318</v>
       </c>
@@ -20117,7 +20135,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="310" spans="1:16">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>319</v>
       </c>
@@ -20167,7 +20185,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="311" spans="1:16">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>320</v>
       </c>
@@ -20217,7 +20235,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="312" spans="1:16">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>321</v>
       </c>
@@ -20267,7 +20285,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="313" spans="1:16">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>322</v>
       </c>
@@ -20308,7 +20326,7 @@
         <v>20</v>
       </c>
       <c r="N313">
-        <v>283.1</v>
+        <v>283.10000000000002</v>
       </c>
       <c r="O313">
         <v>80</v>
@@ -20317,7 +20335,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="314" spans="1:16">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>323</v>
       </c>
@@ -20367,7 +20385,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="315" spans="1:16">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>324</v>
       </c>
@@ -20402,7 +20420,7 @@
         <v>236.5</v>
       </c>
       <c r="L315">
-        <v>94.59999999999999</v>
+        <v>94.6</v>
       </c>
       <c r="M315">
         <v>40</v>
@@ -20417,7 +20435,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="316" spans="1:16">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>325</v>
       </c>
@@ -20467,7 +20485,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="317" spans="1:16">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>326</v>
       </c>
@@ -20508,7 +20526,7 @@
         <v>30</v>
       </c>
       <c r="N317">
-        <v>605.6799999999999</v>
+        <v>605.67999999999995</v>
       </c>
       <c r="O317">
         <v>70</v>
@@ -20517,7 +20535,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="318" spans="1:16">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>327</v>
       </c>
@@ -20567,7 +20585,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="319" spans="1:16">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>328</v>
       </c>
@@ -20617,7 +20635,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="320" spans="1:16">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>329</v>
       </c>
@@ -20667,7 +20685,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="321" spans="1:16">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>330</v>
       </c>
@@ -20702,7 +20720,7 @@
         <v>784.75</v>
       </c>
       <c r="L321">
-        <v>313.9</v>
+        <v>313.89999999999998</v>
       </c>
       <c r="M321">
         <v>40</v>
@@ -20717,7 +20735,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="322" spans="1:16">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>331</v>
       </c>
@@ -20767,7 +20785,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="323" spans="1:16">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>332</v>
       </c>
@@ -20817,7 +20835,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="324" spans="1:16">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>333</v>
       </c>
@@ -20867,7 +20885,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="325" spans="1:16">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>334</v>
       </c>
@@ -20917,7 +20935,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="326" spans="1:16">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>335</v>
       </c>
@@ -20967,7 +20985,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="327" spans="1:16">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>336</v>
       </c>
@@ -21008,7 +21026,7 @@
         <v>45</v>
       </c>
       <c r="N327">
-        <v>521.95</v>
+        <v>521.95000000000005</v>
       </c>
       <c r="O327">
         <v>55</v>
@@ -21017,7 +21035,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="328" spans="1:16">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>337</v>
       </c>
@@ -21067,7 +21085,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="329" spans="1:16">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>338</v>
       </c>
@@ -21117,7 +21135,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="330" spans="1:16">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>339</v>
       </c>
@@ -21164,7 +21182,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="331" spans="1:16">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>340</v>
       </c>
@@ -21214,7 +21232,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="332" spans="1:16">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>341</v>
       </c>
@@ -21249,7 +21267,7 @@
         <v>713.63</v>
       </c>
       <c r="L332">
-        <v>142.73</v>
+        <v>142.72999999999999</v>
       </c>
       <c r="M332">
         <v>20</v>
@@ -21264,7 +21282,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="333" spans="1:16">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>342</v>
       </c>
@@ -21314,7 +21332,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="334" spans="1:16">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>343</v>
       </c>
@@ -21364,7 +21382,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="335" spans="1:16">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>344</v>
       </c>
@@ -21414,7 +21432,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="336" spans="1:16">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>345</v>
       </c>
@@ -21464,7 +21482,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="337" spans="1:16">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>346</v>
       </c>
@@ -21505,7 +21523,7 @@
         <v>25</v>
       </c>
       <c r="N337">
-        <v>545.8099999999999</v>
+        <v>545.80999999999995</v>
       </c>
       <c r="O337">
         <v>75</v>
@@ -21514,7 +21532,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="338" spans="1:16">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>347</v>
       </c>
@@ -21564,7 +21582,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="339" spans="1:16">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>348</v>
       </c>
@@ -21611,7 +21629,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="340" spans="1:16">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>349</v>
       </c>
@@ -21646,7 +21664,7 @@
         <v>211.88</v>
       </c>
       <c r="L340">
-        <v>95.34999999999999</v>
+        <v>95.35</v>
       </c>
       <c r="M340">
         <v>45</v>
@@ -21661,7 +21679,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="341" spans="1:16">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>350</v>
       </c>
@@ -21711,7 +21729,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="342" spans="1:16">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>351</v>
       </c>
@@ -21758,7 +21776,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="343" spans="1:16">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>352</v>
       </c>
@@ -21808,7 +21826,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="344" spans="1:16">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>353</v>
       </c>
@@ -21858,7 +21876,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="345" spans="1:16">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>354</v>
       </c>
@@ -21908,7 +21926,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="346" spans="1:16">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>355</v>
       </c>
@@ -21958,7 +21976,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="347" spans="1:16">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>356</v>
       </c>
@@ -22008,7 +22026,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="348" spans="1:16">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>357</v>
       </c>
@@ -22058,7 +22076,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="349" spans="1:16">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>358</v>
       </c>
@@ -22108,7 +22126,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="350" spans="1:16">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>359</v>
       </c>
@@ -22158,7 +22176,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="351" spans="1:16">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>360</v>
       </c>
@@ -22208,7 +22226,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="352" spans="1:16">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>361</v>
       </c>
@@ -22258,7 +22276,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="353" spans="1:16">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>362</v>
       </c>
@@ -22308,7 +22326,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="354" spans="1:16">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>363</v>
       </c>
@@ -22358,7 +22376,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="355" spans="1:16">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>364</v>
       </c>
@@ -22408,7 +22426,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="356" spans="1:16">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>365</v>
       </c>
@@ -22443,7 +22461,7 @@
         <v>468.38</v>
       </c>
       <c r="L356">
-        <v>93.68000000000001</v>
+        <v>93.68</v>
       </c>
       <c r="M356">
         <v>20</v>
@@ -22458,7 +22476,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="357" spans="1:16">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>366</v>
       </c>
@@ -22490,7 +22508,7 @@
         <v>8943</v>
       </c>
       <c r="K357">
-        <v>1117.88</v>
+        <v>1117.8800000000001</v>
       </c>
       <c r="L357">
         <v>335.37</v>
@@ -22508,7 +22526,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="358" spans="1:16">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>367</v>
       </c>
@@ -22558,7 +22576,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="359" spans="1:16">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>368</v>
       </c>
@@ -22608,7 +22626,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="360" spans="1:16">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>369</v>
       </c>
@@ -22658,7 +22676,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="361" spans="1:16">
+    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>369</v>
       </c>
@@ -22708,7 +22726,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="362" spans="1:16">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>370</v>
       </c>
@@ -22746,7 +22764,7 @@
         <v>30</v>
       </c>
       <c r="N362">
-        <v>285.6</v>
+        <v>285.60000000000002</v>
       </c>
       <c r="O362">
         <v>70</v>
@@ -22755,7 +22773,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="363" spans="1:16">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>371</v>
       </c>
@@ -22805,7 +22823,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="364" spans="1:16">
+    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>372</v>
       </c>
@@ -22855,7 +22873,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="365" spans="1:16">
+    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>373</v>
       </c>
@@ -22902,7 +22920,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="366" spans="1:16">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>374</v>
       </c>
@@ -22934,7 +22952,7 @@
         <v>395.13</v>
       </c>
       <c r="L366">
-        <v>158.05</v>
+        <v>158.05000000000001</v>
       </c>
       <c r="M366">
         <v>40</v>
@@ -22949,7 +22967,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="367" spans="1:16">
+    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>375</v>
       </c>
@@ -22999,7 +23017,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="368" spans="1:16">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>376</v>
       </c>
@@ -23049,7 +23067,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="369" spans="1:16">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>377</v>
       </c>
@@ -23090,7 +23108,7 @@
         <v>25</v>
       </c>
       <c r="N369">
-        <v>319.22</v>
+        <v>319.22000000000003</v>
       </c>
       <c r="O369">
         <v>75</v>
@@ -23099,7 +23117,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="370" spans="1:16">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>378</v>
       </c>
@@ -23149,7 +23167,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="371" spans="1:16">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>379</v>
       </c>
@@ -23199,7 +23217,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="372" spans="1:16">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>380</v>
       </c>
@@ -23249,7 +23267,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="373" spans="1:16">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>381</v>
       </c>
@@ -23290,7 +23308,7 @@
         <v>65</v>
       </c>
       <c r="N373">
-        <v>87.54000000000001</v>
+        <v>87.54</v>
       </c>
       <c r="O373">
         <v>35</v>
@@ -23299,7 +23317,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="374" spans="1:16">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>382</v>
       </c>
@@ -23349,7 +23367,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="375" spans="1:16">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>383</v>
       </c>
@@ -23384,13 +23402,13 @@
         <v>352.7</v>
       </c>
       <c r="L375">
-        <v>70.54000000000001</v>
+        <v>70.540000000000006</v>
       </c>
       <c r="M375">
         <v>20</v>
       </c>
       <c r="N375">
-        <v>282.16</v>
+        <v>282.16000000000003</v>
       </c>
       <c r="O375">
         <v>80</v>
@@ -23399,7 +23417,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="376" spans="1:16">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>384</v>
       </c>
@@ -23449,7 +23467,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="377" spans="1:16">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>385</v>
       </c>
@@ -23499,7 +23517,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="378" spans="1:16">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>386</v>
       </c>
@@ -23549,7 +23567,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="379" spans="1:16">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>387</v>
       </c>
@@ -23590,7 +23608,7 @@
         <v>30</v>
       </c>
       <c r="N379">
-        <v>291.03</v>
+        <v>291.02999999999997</v>
       </c>
       <c r="O379">
         <v>70</v>
@@ -23599,7 +23617,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="380" spans="1:16">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>388</v>
       </c>
@@ -23634,7 +23652,7 @@
         <v>471.38</v>
       </c>
       <c r="L380">
-        <v>141.42</v>
+        <v>141.41999999999999</v>
       </c>
       <c r="M380">
         <v>30</v>
@@ -23649,7 +23667,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="381" spans="1:16">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>389</v>
       </c>
@@ -23699,7 +23717,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="382" spans="1:16">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>390</v>
       </c>
@@ -23749,7 +23767,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="383" spans="1:16">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>391</v>
       </c>
@@ -23799,7 +23817,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="384" spans="1:16">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>392</v>
       </c>
@@ -23849,7 +23867,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="385" spans="1:16">
+    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>393</v>
       </c>
@@ -23899,7 +23917,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="386" spans="1:16">
+    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>394</v>
       </c>
@@ -23949,7 +23967,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="387" spans="1:16">
+    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>395</v>
       </c>
@@ -23999,7 +24017,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="388" spans="1:16">
+    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>396</v>
       </c>
@@ -24049,7 +24067,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="389" spans="1:16">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>397</v>
       </c>
@@ -24099,7 +24117,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="390" spans="1:16">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>398</v>
       </c>
@@ -24149,7 +24167,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="391" spans="1:16">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>399</v>
       </c>
@@ -24199,7 +24217,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="392" spans="1:16">
+    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>400</v>
       </c>
@@ -24249,7 +24267,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="393" spans="1:16">
+    <row r="393" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>401</v>
       </c>
@@ -24299,7 +24317,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="394" spans="1:16">
+    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>402</v>
       </c>
@@ -24349,7 +24367,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="395" spans="1:16">
+    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>403</v>
       </c>
@@ -24399,7 +24417,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="396" spans="1:16">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>404</v>
       </c>
@@ -24446,7 +24464,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="397" spans="1:16">
+    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>405</v>
       </c>
@@ -24496,7 +24514,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="398" spans="1:16">
+    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>405</v>
       </c>
@@ -24546,7 +24564,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="399" spans="1:16">
+    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>406</v>
       </c>
@@ -24596,7 +24614,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="400" spans="1:16">
+    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>407</v>
       </c>
@@ -24646,7 +24664,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="401" spans="1:16">
+    <row r="401" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>408</v>
       </c>
@@ -24696,7 +24714,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="402" spans="1:16">
+    <row r="402" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>409</v>
       </c>
@@ -24737,7 +24755,7 @@
         <v>25</v>
       </c>
       <c r="N402">
-        <v>991.6900000000001</v>
+        <v>991.69</v>
       </c>
       <c r="O402">
         <v>75</v>
@@ -24746,7 +24764,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="403" spans="1:16">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>407</v>
       </c>
@@ -24787,7 +24805,7 @@
         <v>25</v>
       </c>
       <c r="N403">
-        <v>519.9400000000001</v>
+        <v>519.94000000000005</v>
       </c>
       <c r="O403">
         <v>75</v>
@@ -24796,7 +24814,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="404" spans="1:16">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>410</v>
       </c>
@@ -24843,7 +24861,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="405" spans="1:16">
+    <row r="405" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>411</v>
       </c>
@@ -24893,7 +24911,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="406" spans="1:16">
+    <row r="406" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>412</v>
       </c>
@@ -24928,7 +24946,7 @@
         <v>465.75</v>
       </c>
       <c r="L406">
-        <v>93.15000000000001</v>
+        <v>93.15</v>
       </c>
       <c r="M406">
         <v>20</v>
@@ -24943,7 +24961,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="407" spans="1:16">
+    <row r="407" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>413</v>
       </c>
@@ -24978,13 +24996,13 @@
         <v>184.75</v>
       </c>
       <c r="L407">
-        <v>36.95</v>
+        <v>36.950000000000003</v>
       </c>
       <c r="M407">
         <v>20</v>
       </c>
       <c r="N407">
-        <v>147.8</v>
+        <v>147.80000000000001</v>
       </c>
       <c r="O407">
         <v>80</v>
@@ -24993,7 +25011,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="408" spans="1:16">
+    <row r="408" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>414</v>
       </c>
@@ -25028,7 +25046,7 @@
         <v>530.88</v>
       </c>
       <c r="L408">
-        <v>159.27</v>
+        <v>159.27000000000001</v>
       </c>
       <c r="M408">
         <v>30</v>
@@ -25043,7 +25061,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="409" spans="1:16">
+    <row r="409" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>415</v>
       </c>
@@ -25093,7 +25111,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="410" spans="1:16">
+    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>416</v>
       </c>
@@ -25143,7 +25161,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="411" spans="1:16">
+    <row r="411" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>417</v>
       </c>
@@ -25172,10 +25190,10 @@
         <v>5838</v>
       </c>
       <c r="K411">
-        <v>291.9</v>
+        <v>291.89999999999998</v>
       </c>
       <c r="L411">
-        <v>87.56999999999999</v>
+        <v>87.57</v>
       </c>
       <c r="M411">
         <v>30</v>
@@ -25187,7 +25205,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="412" spans="1:16">
+    <row r="412" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>418</v>
       </c>
@@ -25234,7 +25252,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="413" spans="1:16">
+    <row r="413" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>419</v>
       </c>
@@ -25284,7 +25302,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="414" spans="1:16">
+    <row r="414" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>420</v>
       </c>
@@ -25334,7 +25352,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="415" spans="1:16">
+    <row r="415" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>421</v>
       </c>
@@ -25384,7 +25402,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="416" spans="1:16">
+    <row r="416" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>422</v>
       </c>
@@ -25434,7 +25452,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="417" spans="1:16">
+    <row r="417" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>423</v>
       </c>
@@ -25484,7 +25502,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="418" spans="1:16">
+    <row r="418" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>424</v>
       </c>
@@ -25534,7 +25552,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="419" spans="1:16">
+    <row r="419" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>425</v>
       </c>
@@ -25575,7 +25593,7 @@
         <v>45</v>
       </c>
       <c r="N419">
-        <v>138.33</v>
+        <v>138.33000000000001</v>
       </c>
       <c r="O419">
         <v>55</v>
@@ -25584,7 +25602,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="420" spans="1:16">
+    <row r="420" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>426</v>
       </c>
@@ -25631,7 +25649,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="421" spans="1:16">
+    <row r="421" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>427</v>
       </c>
@@ -25681,7 +25699,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="422" spans="1:16">
+    <row r="422" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>428</v>
       </c>
@@ -25731,7 +25749,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="423" spans="1:16">
+    <row r="423" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>429</v>
       </c>
@@ -25766,13 +25784,13 @@
         <v>287.88</v>
       </c>
       <c r="L423">
-        <v>129.55</v>
+        <v>129.55000000000001</v>
       </c>
       <c r="M423">
         <v>45</v>
       </c>
       <c r="N423">
-        <v>158.33</v>
+        <v>158.33000000000001</v>
       </c>
       <c r="O423">
         <v>55</v>
@@ -25781,7 +25799,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="424" spans="1:16">
+    <row r="424" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>430</v>
       </c>
@@ -25831,7 +25849,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="425" spans="1:16">
+    <row r="425" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>431</v>
       </c>
@@ -25881,7 +25899,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="426" spans="1:16">
+    <row r="426" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>432</v>
       </c>
@@ -25931,7 +25949,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="427" spans="1:16">
+    <row r="427" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>433</v>
       </c>
@@ -25981,7 +25999,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="428" spans="1:16">
+    <row r="428" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>434</v>
       </c>
@@ -26031,7 +26049,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="429" spans="1:16">
+    <row r="429" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>435</v>
       </c>
@@ -26081,7 +26099,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="430" spans="1:16">
+    <row r="430" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>436</v>
       </c>
@@ -26131,7 +26149,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="431" spans="1:16">
+    <row r="431" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>437</v>
       </c>
@@ -26181,7 +26199,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="432" spans="1:16">
+    <row r="432" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>438</v>
       </c>
@@ -26231,7 +26249,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="433" spans="1:16">
+    <row r="433" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>439</v>
       </c>
@@ -26278,7 +26296,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="434" spans="1:16">
+    <row r="434" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>440</v>
       </c>
@@ -26328,7 +26346,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="435" spans="1:16">
+    <row r="435" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>441</v>
       </c>
@@ -26378,7 +26396,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="436" spans="1:16">
+    <row r="436" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>442</v>
       </c>
@@ -26428,7 +26446,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="437" spans="1:16">
+    <row r="437" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>443</v>
       </c>
@@ -26460,10 +26478,10 @@
         <v>9001</v>
       </c>
       <c r="K437">
-        <v>1125.13</v>
+        <v>1125.1300000000001</v>
       </c>
       <c r="L437">
-        <v>281.29</v>
+        <v>281.29000000000002</v>
       </c>
       <c r="M437">
         <v>25</v>
@@ -26478,7 +26496,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="438" spans="1:16">
+    <row r="438" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>444</v>
       </c>
@@ -26519,7 +26537,7 @@
         <v>30</v>
       </c>
       <c r="N438">
-        <v>257.78</v>
+        <v>257.77999999999997</v>
       </c>
       <c r="O438">
         <v>70</v>
@@ -26528,7 +26546,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="439" spans="1:16">
+    <row r="439" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>445</v>
       </c>
@@ -26578,7 +26596,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="440" spans="1:16">
+    <row r="440" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>446</v>
       </c>
@@ -26613,13 +26631,13 @@
         <v>362.38</v>
       </c>
       <c r="L440">
-        <v>90.59999999999999</v>
+        <v>90.6</v>
       </c>
       <c r="M440">
         <v>25</v>
       </c>
       <c r="N440">
-        <v>271.78</v>
+        <v>271.77999999999997</v>
       </c>
       <c r="O440">
         <v>75</v>
@@ -26628,7 +26646,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="441" spans="1:16">
+    <row r="441" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>447</v>
       </c>
@@ -26675,7 +26693,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="442" spans="1:16">
+    <row r="442" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>448</v>
       </c>
@@ -26725,7 +26743,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="443" spans="1:16">
+    <row r="443" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>449</v>
       </c>
@@ -26772,7 +26790,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="444" spans="1:16">
+    <row r="444" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>450</v>
       </c>
@@ -26822,7 +26840,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="445" spans="1:16">
+    <row r="445" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>451</v>
       </c>
@@ -26872,7 +26890,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="446" spans="1:16">
+    <row r="446" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>452</v>
       </c>
@@ -26922,7 +26940,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="447" spans="1:16">
+    <row r="447" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>453</v>
       </c>
@@ -26972,7 +26990,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="448" spans="1:16">
+    <row r="448" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>454</v>
       </c>
@@ -27007,7 +27025,7 @@
         <v>526.38</v>
       </c>
       <c r="L448">
-        <v>157.92</v>
+        <v>157.91999999999999</v>
       </c>
       <c r="M448">
         <v>30</v>
@@ -27022,7 +27040,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="449" spans="1:16">
+    <row r="449" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>455</v>
       </c>
@@ -27057,13 +27075,13 @@
         <v>672.75</v>
       </c>
       <c r="L449">
-        <v>134.55</v>
+        <v>134.55000000000001</v>
       </c>
       <c r="M449">
         <v>20</v>
       </c>
       <c r="N449">
-        <v>538.2</v>
+        <v>538.20000000000005</v>
       </c>
       <c r="O449">
         <v>80</v>
